--- a/Code/Results/Cases/Case_4_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_237/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.183783479082763</v>
+        <v>0.614130955618208</v>
       </c>
       <c r="C2">
-        <v>0.1099805913660106</v>
+        <v>0.1832342419238913</v>
       </c>
       <c r="D2">
-        <v>0.1969196103509745</v>
+        <v>0.07841000983695778</v>
       </c>
       <c r="E2">
-        <v>0.07571292950347441</v>
+        <v>0.1181434392460474</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4344505397514098</v>
+        <v>0.721069912173391</v>
       </c>
       <c r="H2">
-        <v>0.3526191793766174</v>
+        <v>0.8202381719016643</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9390910613397807</v>
+        <v>0.3183511061105548</v>
       </c>
       <c r="L2">
-        <v>0.2504239885040107</v>
+        <v>0.1914607565041564</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7990315050070664</v>
+        <v>1.667097230385806</v>
       </c>
       <c r="O2">
-        <v>1.60722119483836</v>
+        <v>3.086034324175728</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.029878357567043</v>
+        <v>0.5715177553169895</v>
       </c>
       <c r="C3">
-        <v>0.1101556945640638</v>
+        <v>0.1834208062695879</v>
       </c>
       <c r="D3">
-        <v>0.1709470294647844</v>
+        <v>0.07114887349011667</v>
       </c>
       <c r="E3">
-        <v>0.07072541194145288</v>
+        <v>0.1175958507131689</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4170871742145792</v>
+        <v>0.7219813822036016</v>
       </c>
       <c r="H3">
-        <v>0.3502729705388248</v>
+        <v>0.8244515666570464</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8172783505569328</v>
+        <v>0.281972806424136</v>
       </c>
       <c r="L3">
-        <v>0.2207332980645162</v>
+        <v>0.1842882237729668</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8388671710758904</v>
+        <v>1.684216953420999</v>
       </c>
       <c r="O3">
-        <v>1.565128276223305</v>
+        <v>3.096513499743168</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9357481362835074</v>
+        <v>0.5455507417611614</v>
       </c>
       <c r="C4">
-        <v>0.1102970686087303</v>
+        <v>0.1835546655792726</v>
       </c>
       <c r="D4">
-        <v>0.1551277773256032</v>
+        <v>0.06672343385146462</v>
       </c>
       <c r="E4">
-        <v>0.06776716759466694</v>
+        <v>0.1173192357701041</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4072952798930771</v>
+        <v>0.7229644642199133</v>
       </c>
       <c r="H4">
-        <v>0.3493727056278502</v>
+        <v>0.8273655583896513</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7425594811689962</v>
+        <v>0.2596402299757159</v>
       </c>
       <c r="L4">
-        <v>0.2027113004177892</v>
+        <v>0.1799849335866099</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8643759189084348</v>
+        <v>1.695265583010079</v>
       </c>
       <c r="O4">
-        <v>1.542247094683674</v>
+        <v>3.104520111476873</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8974673987340793</v>
+        <v>0.5350193446718663</v>
       </c>
       <c r="C5">
-        <v>0.1103631553947402</v>
+        <v>0.1836140920404183</v>
       </c>
       <c r="D5">
-        <v>0.1487097094666723</v>
+        <v>0.06492834140335901</v>
       </c>
       <c r="E5">
-        <v>0.06658654139913978</v>
+        <v>0.1172215238498531</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4035128025973478</v>
+        <v>0.7234715481520979</v>
       </c>
       <c r="H5">
-        <v>0.3491369288670398</v>
+        <v>0.8286353301942242</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7121198674895766</v>
+        <v>0.2505409868583115</v>
       </c>
       <c r="L5">
-        <v>0.1954150105191559</v>
+        <v>0.1782567048641397</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8750288171889604</v>
+        <v>1.699903038467695</v>
       </c>
       <c r="O5">
-        <v>1.533635266827545</v>
+        <v>3.108178404238984</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8911152189385803</v>
+        <v>0.5332736761901629</v>
       </c>
       <c r="C6">
-        <v>0.1103746399111571</v>
+        <v>0.1836242550233358</v>
       </c>
       <c r="D6">
-        <v>0.1476456024023349</v>
+        <v>0.06463077046939247</v>
       </c>
       <c r="E6">
-        <v>0.06639196531216029</v>
+        <v>0.1172062061394428</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4028969695661999</v>
+        <v>0.7235621794036646</v>
       </c>
       <c r="H6">
-        <v>0.3491055602204156</v>
+        <v>0.8288511477653699</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7070656550388605</v>
+        <v>0.2490301674380646</v>
       </c>
       <c r="L6">
-        <v>0.1942062268742148</v>
+        <v>0.1779712701194427</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.876813127005412</v>
+        <v>1.700681241193982</v>
       </c>
       <c r="O6">
-        <v>1.532247375823388</v>
+        <v>3.108809754713008</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9352315712787629</v>
+        <v>0.5454085068184042</v>
       </c>
       <c r="C7">
-        <v>0.1102979256085952</v>
+        <v>0.1835554472460927</v>
       </c>
       <c r="D7">
-        <v>0.1550411108836727</v>
+        <v>0.06669919091892496</v>
       </c>
       <c r="E7">
-        <v>0.06775114618173461</v>
+        <v>0.1173178571845028</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4072434406090579</v>
+        <v>0.7229708718471528</v>
       </c>
       <c r="H7">
-        <v>0.3493690012394879</v>
+        <v>0.8273823496522894</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7421489383417423</v>
+        <v>0.2595175078195098</v>
       </c>
       <c r="L7">
-        <v>0.202612712315684</v>
+        <v>0.1799615231497427</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8645185512416935</v>
+        <v>1.695327578542393</v>
       </c>
       <c r="O7">
-        <v>1.542128110286086</v>
+        <v>3.104567846792804</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.130631592159091</v>
+        <v>0.5993972856610696</v>
       </c>
       <c r="C8">
-        <v>0.1100339147430738</v>
+        <v>0.1832945753541324</v>
       </c>
       <c r="D8">
-        <v>0.1879353561988637</v>
+        <v>0.07589955194617914</v>
       </c>
       <c r="E8">
-        <v>0.07397082488590812</v>
+        <v>0.1179422723128454</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4282765785706459</v>
+        <v>0.7212962973296868</v>
       </c>
       <c r="H8">
-        <v>0.3516951167306672</v>
+        <v>0.8216231406174188</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8970684313623849</v>
+        <v>0.305807356428403</v>
       </c>
       <c r="L8">
-        <v>0.2401406208323209</v>
+        <v>0.1889668187909592</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.812545316210745</v>
+        <v>1.672888649759188</v>
       </c>
       <c r="O8">
-        <v>1.592072085406329</v>
+        <v>3.089321287546909</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.517440159359467</v>
+        <v>0.7068137377750361</v>
       </c>
       <c r="C9">
-        <v>0.1097868554528674</v>
+        <v>0.1829352414307941</v>
       </c>
       <c r="D9">
-        <v>0.253638687602276</v>
+        <v>0.09420230747998914</v>
       </c>
       <c r="E9">
-        <v>0.08705567443631423</v>
+        <v>0.119638922931891</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4769335980624732</v>
+        <v>0.7213734295576018</v>
       </c>
       <c r="H9">
-        <v>0.3607712540710963</v>
+        <v>0.8129202179244714</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.20194157990025</v>
+        <v>0.3965947334169471</v>
       </c>
       <c r="L9">
-        <v>0.3156034405826631</v>
+        <v>0.2074224845806043</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7192354741133606</v>
+        <v>1.633146400067221</v>
       </c>
       <c r="O9">
-        <v>1.715096476383849</v>
+        <v>3.071894626354862</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.80491032883404</v>
+        <v>0.7866505503735937</v>
       </c>
       <c r="C10">
-        <v>0.1097735199350396</v>
+        <v>0.1827627830519916</v>
       </c>
       <c r="D10">
-        <v>0.3029114235025361</v>
+        <v>0.1078092469323906</v>
       </c>
       <c r="E10">
-        <v>0.09730202145431832</v>
+        <v>0.1211725591942816</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5179562010741705</v>
+        <v>0.7234820020392903</v>
       </c>
       <c r="H10">
-        <v>0.3705265254304635</v>
+        <v>0.808101568394946</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.427323278975365</v>
+        <v>0.4632873076485851</v>
       </c>
       <c r="L10">
-        <v>0.3725119953209628</v>
+        <v>0.2214655793321612</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6563384025652585</v>
+        <v>1.606542914448634</v>
       </c>
       <c r="O10">
-        <v>1.823079959551052</v>
+        <v>3.066692587130433</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.93665533328334</v>
+        <v>0.8231651620822902</v>
       </c>
       <c r="C11">
-        <v>0.1098047702366927</v>
+        <v>0.1827039420767989</v>
       </c>
       <c r="D11">
-        <v>0.3256078565126188</v>
+        <v>0.1140343744685879</v>
       </c>
       <c r="E11">
-        <v>0.1021223341853172</v>
+        <v>0.1219324533912491</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5379424856238728</v>
+        <v>0.7248875193402995</v>
       </c>
       <c r="H11">
-        <v>0.3757140093909754</v>
+        <v>0.8062506968717855</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.53033319501094</v>
+        <v>0.493622340732486</v>
       </c>
       <c r="L11">
-        <v>0.3987966003213188</v>
+        <v>0.2279589056332156</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6290499391713411</v>
+        <v>1.595003361783499</v>
       </c>
       <c r="O11">
-        <v>1.876570715565975</v>
+        <v>3.065976498040044</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.986705880394396</v>
+        <v>0.8370199723928806</v>
       </c>
       <c r="C12">
-        <v>0.1098220427132617</v>
+        <v>0.1826844586316412</v>
       </c>
       <c r="D12">
-        <v>0.3342485244451865</v>
+        <v>0.116396725575413</v>
       </c>
       <c r="E12">
-        <v>0.1039724480866475</v>
+        <v>0.1222291369464479</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5457171788036703</v>
+        <v>0.7254839661955117</v>
       </c>
       <c r="H12">
-        <v>0.3777932524002239</v>
+        <v>0.8055988066149808</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.56942505581614</v>
+        <v>0.5051084671908654</v>
       </c>
       <c r="L12">
-        <v>0.4088136876959254</v>
+        <v>0.2304328046644883</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6189156226974677</v>
+        <v>1.590714525045097</v>
       </c>
       <c r="O12">
-        <v>1.897502953765013</v>
+        <v>3.065942581506675</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.975919053410138</v>
+        <v>0.8340348787901917</v>
       </c>
       <c r="C13">
-        <v>0.1098180796624888</v>
+        <v>0.1826885306277646</v>
       </c>
       <c r="D13">
-        <v>0.3323854643754061</v>
+        <v>0.1158877279195565</v>
       </c>
       <c r="E13">
-        <v>0.1035728603699013</v>
+        <v>0.1221648440939944</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5440333204496426</v>
+        <v>0.7253526545871836</v>
       </c>
       <c r="H13">
-        <v>0.377340224818866</v>
+        <v>0.8057370248004787</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.561001929791729</v>
+        <v>0.5026347817237422</v>
       </c>
       <c r="L13">
-        <v>0.4066533860513744</v>
+        <v>0.2298993397716487</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6210892205907437</v>
+        <v>1.591634602001176</v>
       </c>
       <c r="O13">
-        <v>1.892963933499914</v>
+        <v>3.065939335313828</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.940769654643049</v>
+        <v>0.8243044583176413</v>
       </c>
       <c r="C14">
-        <v>0.1098060818150728</v>
+        <v>0.1827022832042289</v>
       </c>
       <c r="D14">
-        <v>0.3263177745612182</v>
+        <v>0.1142286259334213</v>
       </c>
       <c r="E14">
-        <v>0.1022740366650048</v>
+        <v>0.1219566829153003</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5385778850707794</v>
+        <v>0.7249353024006666</v>
       </c>
       <c r="H14">
-        <v>0.3758827260796096</v>
+        <v>0.8061960839039841</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.533547528815262</v>
+        <v>0.4945673363250762</v>
       </c>
       <c r="L14">
-        <v>0.3996193962879175</v>
+        <v>0.2281621343386178</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6282121370227105</v>
+        <v>1.594648894100922</v>
       </c>
       <c r="O14">
-        <v>1.878278978436725</v>
+        <v>3.065968953230652</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.919261341357583</v>
+        <v>0.8183478569877991</v>
       </c>
       <c r="C15">
-        <v>0.1097994433300471</v>
+        <v>0.1827110708412079</v>
       </c>
       <c r="D15">
-        <v>0.322607300918321</v>
+        <v>0.1132130319579545</v>
       </c>
       <c r="E15">
-        <v>0.1014817525467855</v>
+        <v>0.1218303402539931</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5352636293503679</v>
+        <v>0.724688024728863</v>
       </c>
       <c r="H15">
-        <v>0.3750051405845483</v>
+        <v>0.8064836495342718</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.51674234470417</v>
+        <v>0.4896256344313485</v>
       </c>
       <c r="L15">
-        <v>0.3953193719507482</v>
+        <v>0.2270999988899405</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6326013483262924</v>
+        <v>1.596505777645272</v>
       </c>
       <c r="O15">
-        <v>1.869373600288128</v>
+        <v>3.066017990132309</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.796321882644975</v>
+        <v>0.7842681252849104</v>
       </c>
       <c r="C16">
-        <v>0.1097722346128975</v>
+        <v>0.1827670212153976</v>
       </c>
       <c r="D16">
-        <v>0.3014342926589535</v>
+        <v>0.1074031263563313</v>
       </c>
       <c r="E16">
-        <v>0.09699036364660785</v>
+        <v>0.1211241488420178</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5166780379547049</v>
+        <v>0.7233991316375779</v>
       </c>
       <c r="H16">
-        <v>0.370203189533882</v>
+        <v>0.8082293867255572</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.420602295148512</v>
+        <v>0.4613047191515989</v>
       </c>
       <c r="L16">
-        <v>0.370802773597859</v>
+        <v>0.2210433315035942</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6581491509955415</v>
+        <v>1.607308374951766</v>
       </c>
       <c r="O16">
-        <v>1.819676172101424</v>
+        <v>3.066772588708432</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.721166718565144</v>
+        <v>0.763411109459156</v>
       </c>
       <c r="C17">
-        <v>0.1097651501958978</v>
+        <v>0.1828063523582557</v>
       </c>
       <c r="D17">
-        <v>0.2885213516309051</v>
+        <v>0.1038479406557968</v>
       </c>
       <c r="E17">
-        <v>0.09427711295066388</v>
+        <v>0.1207068481700126</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5056266377077918</v>
+        <v>0.7227227702057775</v>
       </c>
       <c r="H17">
-        <v>0.3674542442052768</v>
+        <v>0.8093876731593639</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.361757334055483</v>
+        <v>0.4439294006675993</v>
       </c>
       <c r="L17">
-        <v>0.3558688092217892</v>
+        <v>0.2173546054111313</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6741670818817234</v>
+        <v>1.614079527283746</v>
       </c>
       <c r="O17">
-        <v>1.790340642354607</v>
+        <v>3.067658156160661</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.67802969574015</v>
+        <v>0.7514332396047223</v>
       </c>
       <c r="C18">
-        <v>0.1097645831149237</v>
+        <v>0.1828308217780616</v>
       </c>
       <c r="D18">
-        <v>0.2811203670448066</v>
+        <v>0.1018064134179753</v>
       </c>
       <c r="E18">
-        <v>0.09273138844476847</v>
+        <v>0.1204726870272204</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4993938643174403</v>
+        <v>0.7223757528390991</v>
       </c>
       <c r="H18">
-        <v>0.3659432463480812</v>
+        <v>0.8100860038832707</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.327955748713265</v>
+        <v>0.4339352568015613</v>
       </c>
       <c r="L18">
-        <v>0.3473160963620785</v>
+        <v>0.2152428410896476</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6835042033168972</v>
+        <v>1.618027057402438</v>
       </c>
       <c r="O18">
-        <v>1.773875735815949</v>
+        <v>3.068322853412013</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.663439105661467</v>
+        <v>0.7473809441194135</v>
       </c>
       <c r="C19">
-        <v>0.1097649914564158</v>
+        <v>0.1828394246247953</v>
       </c>
       <c r="D19">
-        <v>0.2786188592950936</v>
+        <v>0.1011157590644416</v>
       </c>
       <c r="E19">
-        <v>0.09221053066492857</v>
+        <v>0.1203944110506967</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.497304335153288</v>
+        <v>0.7222654727419524</v>
       </c>
       <c r="H19">
-        <v>0.3654434851039383</v>
+        <v>0.8103279643842285</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.316518317182812</v>
+        <v>0.4305513732369377</v>
       </c>
       <c r="L19">
-        <v>0.3444264384221185</v>
+        <v>0.2145295358736519</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6866866332319144</v>
+        <v>1.619372714586562</v>
       </c>
       <c r="O19">
-        <v>1.768369676214547</v>
+        <v>3.068574590689934</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.729157622858423</v>
+        <v>0.7656294614798469</v>
       </c>
       <c r="C20">
-        <v>0.1097655408073095</v>
+        <v>0.1828019744711469</v>
       </c>
       <c r="D20">
-        <v>0.2898932063949218</v>
+        <v>0.1042260527649859</v>
       </c>
       <c r="E20">
-        <v>0.09456439139417228</v>
+        <v>0.1207506642910054</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.506790164505162</v>
+        <v>0.7227904221747536</v>
       </c>
       <c r="H20">
-        <v>0.367739567168627</v>
+        <v>0.8092610482670324</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.368016773000392</v>
+        <v>0.4457790701258659</v>
       </c>
       <c r="L20">
-        <v>0.3574546885964338</v>
+        <v>0.2177462533188503</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6724490464989419</v>
+        <v>1.613353246837488</v>
       </c>
       <c r="O20">
-        <v>1.793420881804138</v>
+        <v>3.067547809128683</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.951089320394601</v>
+        <v>0.8271617776284472</v>
       </c>
       <c r="C21">
-        <v>0.1098094576580024</v>
+        <v>0.1826981679641122</v>
       </c>
       <c r="D21">
-        <v>0.3280987078214537</v>
+        <v>0.1147158082063982</v>
       </c>
       <c r="E21">
-        <v>0.1026548450045155</v>
+        <v>0.1220175827629504</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5401745480304498</v>
+        <v>0.7250561460484874</v>
       </c>
       <c r="H21">
-        <v>0.3763076531889453</v>
+        <v>0.8060599179198107</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.541609142050532</v>
+        <v>0.4969369746443135</v>
       </c>
       <c r="L21">
-        <v>0.4016836662290189</v>
+        <v>0.2286719868331062</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6261144830602503</v>
+        <v>1.593761326276815</v>
       </c>
       <c r="O21">
-        <v>1.882573546446196</v>
+        <v>3.065953815345807</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.097087413513179</v>
+        <v>0.8675367679372812</v>
       </c>
       <c r="C22">
-        <v>0.1098698991665898</v>
+        <v>0.1826466253885926</v>
       </c>
       <c r="D22">
-        <v>0.3533392528455437</v>
+        <v>0.1216007714986489</v>
       </c>
       <c r="E22">
-        <v>0.1080877362138963</v>
+        <v>0.1228976171561484</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.563203872475313</v>
+        <v>0.7269111932292844</v>
       </c>
       <c r="H22">
-        <v>0.3825804714153094</v>
+        <v>0.8042533432179511</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.655560479434115</v>
+        <v>0.5303649995560136</v>
       </c>
       <c r="L22">
-        <v>0.4309644315149939</v>
+        <v>0.2359000757283383</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5969979876362985</v>
+        <v>1.581428688802697</v>
       </c>
       <c r="O22">
-        <v>1.944807587579561</v>
+        <v>3.066294896325132</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.019070757175541</v>
+        <v>0.8459734710111206</v>
       </c>
       <c r="C23">
-        <v>0.1098347104874904</v>
+        <v>0.1826726502252924</v>
       </c>
       <c r="D23">
-        <v>0.3398411994581352</v>
+        <v>0.1179234694618714</v>
       </c>
       <c r="E23">
-        <v>0.1051741533976411</v>
+        <v>0.1224231725503842</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5507964100904132</v>
+        <v>0.7258868652027672</v>
       </c>
       <c r="H23">
-        <v>0.3791685122291</v>
+        <v>0.8051914391907786</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.594691691299772</v>
+        <v>0.5125246222366968</v>
       </c>
       <c r="L23">
-        <v>0.4153001499808511</v>
+        <v>0.2320343328630514</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6124282502444731</v>
+        <v>1.587967660022097</v>
       </c>
       <c r="O23">
-        <v>1.911212273549836</v>
+        <v>3.065986346551199</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.725544716483654</v>
+        <v>0.7646265036521527</v>
       </c>
       <c r="C24">
-        <v>0.1097653532972629</v>
+        <v>0.1828039479263097</v>
       </c>
       <c r="D24">
-        <v>0.289272920132575</v>
+        <v>0.1040551008143069</v>
       </c>
       <c r="E24">
-        <v>0.09443446884656126</v>
+        <v>0.1207308371088978</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5062637588835059</v>
+        <v>0.7227597064181168</v>
       </c>
       <c r="H24">
-        <v>0.3676103569951863</v>
+        <v>0.8093181943997791</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.365186790914635</v>
+        <v>0.4449428496046437</v>
       </c>
       <c r="L24">
-        <v>0.3567376101715496</v>
+        <v>0.2175691614677362</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6732253716475283</v>
+        <v>1.613681427827799</v>
       </c>
       <c r="O24">
-        <v>1.792027061754112</v>
+        <v>3.067597212416075</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.412303251769856</v>
+        <v>0.6775918264195582</v>
       </c>
       <c r="C25">
-        <v>0.1098244062800653</v>
+        <v>0.183016284057743</v>
       </c>
       <c r="D25">
-        <v>0.2357089854702821</v>
+        <v>0.08922290566890467</v>
       </c>
       <c r="E25">
-        <v>0.08341166724027005</v>
+        <v>0.1191294609187743</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4629018338389841</v>
+        <v>0.720992439986361</v>
       </c>
       <c r="H25">
-        <v>0.3577992630627591</v>
+        <v>0.8149976416768965</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.119277028137731</v>
+        <v>0.3720346843419691</v>
       </c>
       <c r="L25">
-        <v>0.2949560322424816</v>
+        <v>0.202344664879476</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7435158441209295</v>
+        <v>1.643441853685123</v>
       </c>
       <c r="O25">
-        <v>1.678900039508306</v>
+        <v>3.075273995180453</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_237/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.614130955618208</v>
+        <v>1.183783479082763</v>
       </c>
       <c r="C2">
-        <v>0.1832342419238913</v>
+        <v>0.1099805913657654</v>
       </c>
       <c r="D2">
-        <v>0.07841000983695778</v>
+        <v>0.1969196103510171</v>
       </c>
       <c r="E2">
-        <v>0.1181434392460474</v>
+        <v>0.07571292950347441</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.721069912173391</v>
+        <v>0.4344505397514382</v>
       </c>
       <c r="H2">
-        <v>0.8202381719016643</v>
+        <v>0.3526191793767168</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3183511061105548</v>
+        <v>0.9390910613397239</v>
       </c>
       <c r="L2">
-        <v>0.1914607565041564</v>
+        <v>0.2504239885041386</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.667097230385806</v>
+        <v>0.7990315050071213</v>
       </c>
       <c r="O2">
-        <v>3.086034324175728</v>
+        <v>1.607221194838274</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5715177553169895</v>
+        <v>1.029878357567014</v>
       </c>
       <c r="C3">
-        <v>0.1834208062695879</v>
+        <v>0.1101556945641384</v>
       </c>
       <c r="D3">
-        <v>0.07114887349011667</v>
+        <v>0.1709470294647417</v>
       </c>
       <c r="E3">
-        <v>0.1175958507131689</v>
+        <v>0.07072541194145643</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7219813822036016</v>
+        <v>0.4170871742146147</v>
       </c>
       <c r="H3">
-        <v>0.8244515666570464</v>
+        <v>0.3502729705388248</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.281972806424136</v>
+        <v>0.8172783505569328</v>
       </c>
       <c r="L3">
-        <v>0.1842882237729668</v>
+        <v>0.2207332980644452</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.684216953420999</v>
+        <v>0.8388671710758779</v>
       </c>
       <c r="O3">
-        <v>3.096513499743168</v>
+        <v>1.565128276223291</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5455507417611614</v>
+        <v>0.9357481362833937</v>
       </c>
       <c r="C4">
-        <v>0.1835546655792726</v>
+        <v>0.1102970686089648</v>
       </c>
       <c r="D4">
-        <v>0.06672343385146462</v>
+        <v>0.1551277773257169</v>
       </c>
       <c r="E4">
-        <v>0.1173192357701041</v>
+        <v>0.06776716759465629</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7229644642199133</v>
+        <v>0.4072952798930132</v>
       </c>
       <c r="H4">
-        <v>0.8273655583896513</v>
+        <v>0.3493727056278502</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2596402299757159</v>
+        <v>0.7425594811689962</v>
       </c>
       <c r="L4">
-        <v>0.1799849335866099</v>
+        <v>0.2027113004177892</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.695265583010079</v>
+        <v>0.864375918908374</v>
       </c>
       <c r="O4">
-        <v>3.104520111476873</v>
+        <v>1.542247094683674</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5350193446718663</v>
+        <v>0.8974673987340793</v>
       </c>
       <c r="C5">
-        <v>0.1836140920404183</v>
+        <v>0.1103631553949107</v>
       </c>
       <c r="D5">
-        <v>0.06492834140335901</v>
+        <v>0.1487097094668002</v>
       </c>
       <c r="E5">
-        <v>0.1172215238498531</v>
+        <v>0.06658654139913622</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7234715481520979</v>
+        <v>0.403512802597227</v>
       </c>
       <c r="H5">
-        <v>0.8286353301942242</v>
+        <v>0.3491369288669262</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2505409868583115</v>
+        <v>0.7121198674895766</v>
       </c>
       <c r="L5">
-        <v>0.1782567048641397</v>
+        <v>0.1954150105190706</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.699903038467695</v>
+        <v>0.8750288171889467</v>
       </c>
       <c r="O5">
-        <v>3.108178404238984</v>
+        <v>1.533635266827503</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5332736761901629</v>
+        <v>0.8911152189384381</v>
       </c>
       <c r="C6">
-        <v>0.1836242550233358</v>
+        <v>0.1103746399113845</v>
       </c>
       <c r="D6">
-        <v>0.06463077046939247</v>
+        <v>0.1476456024022781</v>
       </c>
       <c r="E6">
-        <v>0.1172062061394428</v>
+        <v>0.06639196531216029</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7235621794036646</v>
+        <v>0.402896969566136</v>
       </c>
       <c r="H6">
-        <v>0.8288511477653699</v>
+        <v>0.3491055602204156</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2490301674380646</v>
+        <v>0.7070656550389316</v>
       </c>
       <c r="L6">
-        <v>0.1779712701194427</v>
+        <v>0.1942062268742575</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.700681241193982</v>
+        <v>0.8768131270054698</v>
       </c>
       <c r="O6">
-        <v>3.108809754713008</v>
+        <v>1.532247375823445</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5454085068184042</v>
+        <v>0.9352315712786208</v>
       </c>
       <c r="C7">
-        <v>0.1835554472460927</v>
+        <v>0.1102979256086023</v>
       </c>
       <c r="D7">
-        <v>0.06669919091892496</v>
+        <v>0.155041110883559</v>
       </c>
       <c r="E7">
-        <v>0.1173178571845028</v>
+        <v>0.06775114618173461</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7229708718471528</v>
+        <v>0.4072434406090011</v>
       </c>
       <c r="H7">
-        <v>0.8273823496522894</v>
+        <v>0.3493690012394879</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2595175078195098</v>
+        <v>0.742148938341856</v>
       </c>
       <c r="L7">
-        <v>0.1799615231497427</v>
+        <v>0.202612712315684</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.695327578542393</v>
+        <v>0.8645185512416923</v>
       </c>
       <c r="O7">
-        <v>3.104567846792804</v>
+        <v>1.542128110286086</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5993972856610696</v>
+        <v>1.130631592159205</v>
       </c>
       <c r="C8">
-        <v>0.1832945753541324</v>
+        <v>0.1100339147428286</v>
       </c>
       <c r="D8">
-        <v>0.07589955194617914</v>
+        <v>0.1879353561988495</v>
       </c>
       <c r="E8">
-        <v>0.1179422723128454</v>
+        <v>0.07397082488590456</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.7212962973296868</v>
+        <v>0.4282765785706459</v>
       </c>
       <c r="H8">
-        <v>0.8216231406174188</v>
+        <v>0.3516951167306672</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.305807356428403</v>
+        <v>0.8970684313625554</v>
       </c>
       <c r="L8">
-        <v>0.1889668187909592</v>
+        <v>0.2401406208321788</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.672888649759188</v>
+        <v>0.8125453162107483</v>
       </c>
       <c r="O8">
-        <v>3.089321287546909</v>
+        <v>1.592072085406386</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7068137377750361</v>
+        <v>1.51744015935941</v>
       </c>
       <c r="C9">
-        <v>0.1829352414307941</v>
+        <v>0.1097868554529597</v>
       </c>
       <c r="D9">
-        <v>0.09420230747998914</v>
+        <v>0.2536386876023329</v>
       </c>
       <c r="E9">
-        <v>0.119638922931891</v>
+        <v>0.08705567443629647</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.7213734295576018</v>
+        <v>0.4769335980624305</v>
       </c>
       <c r="H9">
-        <v>0.8129202179244714</v>
+        <v>0.3607712540710963</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3965947334169471</v>
+        <v>1.201941579900421</v>
       </c>
       <c r="L9">
-        <v>0.2074224845806043</v>
+        <v>0.3156034405826205</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.633146400067221</v>
+        <v>0.7192354741134097</v>
       </c>
       <c r="O9">
-        <v>3.071894626354862</v>
+        <v>1.715096476383849</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7866505503735937</v>
+        <v>1.804910328834012</v>
       </c>
       <c r="C10">
-        <v>0.1827627830519916</v>
+        <v>0.109773519934798</v>
       </c>
       <c r="D10">
-        <v>0.1078092469323906</v>
+        <v>0.3029114235024366</v>
       </c>
       <c r="E10">
-        <v>0.1211725591942816</v>
+        <v>0.09730202145431832</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7234820020392903</v>
+        <v>0.5179562010741137</v>
       </c>
       <c r="H10">
-        <v>0.808101568394946</v>
+        <v>0.3705265254304493</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4632873076485851</v>
+        <v>1.427323278975422</v>
       </c>
       <c r="L10">
-        <v>0.2214655793321612</v>
+        <v>0.3725119953209486</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.606542914448634</v>
+        <v>0.656338402565247</v>
       </c>
       <c r="O10">
-        <v>3.066692587130433</v>
+        <v>1.823079959551023</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8231651620822902</v>
+        <v>1.936655333283369</v>
       </c>
       <c r="C11">
-        <v>0.1827039420767989</v>
+        <v>0.1098047702361029</v>
       </c>
       <c r="D11">
-        <v>0.1140343744685879</v>
+        <v>0.3256078565125193</v>
       </c>
       <c r="E11">
-        <v>0.1219324533912491</v>
+        <v>0.1021223341852995</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7248875193402995</v>
+        <v>0.5379424856238586</v>
       </c>
       <c r="H11">
-        <v>0.8062506968717855</v>
+        <v>0.3757140093909754</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.493622340732486</v>
+        <v>1.530333195010769</v>
       </c>
       <c r="L11">
-        <v>0.2279589056332156</v>
+        <v>0.398796600321333</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.595003361783499</v>
+        <v>0.6290499391712809</v>
       </c>
       <c r="O11">
-        <v>3.065976498040044</v>
+        <v>1.876570715565975</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8370199723928806</v>
+        <v>1.986705880394283</v>
       </c>
       <c r="C12">
-        <v>0.1826844586316412</v>
+        <v>0.1098220427132546</v>
       </c>
       <c r="D12">
-        <v>0.116396725575413</v>
+        <v>0.3342485244452433</v>
       </c>
       <c r="E12">
-        <v>0.1222291369464479</v>
+        <v>0.1039724480866369</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7254839661955117</v>
+        <v>0.5457171788036561</v>
       </c>
       <c r="H12">
-        <v>0.8055988066149808</v>
+        <v>0.3777932524001955</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5051084671908654</v>
+        <v>1.569425055815998</v>
       </c>
       <c r="L12">
-        <v>0.2304328046644883</v>
+        <v>0.4088136876959254</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.590714525045097</v>
+        <v>0.6189156226974526</v>
       </c>
       <c r="O12">
-        <v>3.065942581506675</v>
+        <v>1.897502953764956</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8340348787901917</v>
+        <v>1.975919053409939</v>
       </c>
       <c r="C13">
-        <v>0.1826885306277646</v>
+        <v>0.1098180796625812</v>
       </c>
       <c r="D13">
-        <v>0.1158877279195565</v>
+        <v>0.3323854643756761</v>
       </c>
       <c r="E13">
-        <v>0.1221648440939944</v>
+        <v>0.1035728603698836</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7253526545871836</v>
+        <v>0.5440333204496284</v>
       </c>
       <c r="H13">
-        <v>0.8057370248004787</v>
+        <v>0.377340224818866</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5026347817237422</v>
+        <v>1.561001929791701</v>
       </c>
       <c r="L13">
-        <v>0.2298993397716487</v>
+        <v>0.4066533860513886</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.591634602001176</v>
+        <v>0.6210892205907403</v>
       </c>
       <c r="O13">
-        <v>3.065939335313828</v>
+        <v>1.892963933499914</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8243044583176413</v>
+        <v>1.940769654643049</v>
       </c>
       <c r="C14">
-        <v>0.1827022832042289</v>
+        <v>0.109806081814618</v>
       </c>
       <c r="D14">
-        <v>0.1142286259334213</v>
+        <v>0.3263177745611046</v>
       </c>
       <c r="E14">
-        <v>0.1219566829153003</v>
+        <v>0.1022740366650083</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7249353024006666</v>
+        <v>0.5385778850707226</v>
       </c>
       <c r="H14">
-        <v>0.8061960839039841</v>
+        <v>0.3758827260796096</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4945673363250762</v>
+        <v>1.533547528815404</v>
       </c>
       <c r="L14">
-        <v>0.2281621343386178</v>
+        <v>0.3996193962878891</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.594648894100922</v>
+        <v>0.6282121370227265</v>
       </c>
       <c r="O14">
-        <v>3.065968953230652</v>
+        <v>1.878278978436754</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8183478569877991</v>
+        <v>1.919261341357554</v>
       </c>
       <c r="C15">
-        <v>0.1827110708412079</v>
+        <v>0.1097994433302816</v>
       </c>
       <c r="D15">
-        <v>0.1132130319579545</v>
+        <v>0.322607300918321</v>
       </c>
       <c r="E15">
-        <v>0.1218303402539931</v>
+        <v>0.101481752546789</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.724688024728863</v>
+        <v>0.5352636293503679</v>
       </c>
       <c r="H15">
-        <v>0.8064836495342718</v>
+        <v>0.3750051405845483</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4896256344313485</v>
+        <v>1.516742344704056</v>
       </c>
       <c r="L15">
-        <v>0.2270999988899405</v>
+        <v>0.395319371950805</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.596505777645272</v>
+        <v>0.6326013483263424</v>
       </c>
       <c r="O15">
-        <v>3.066017990132309</v>
+        <v>1.869373600288128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7842681252849104</v>
+        <v>1.796321882644804</v>
       </c>
       <c r="C16">
-        <v>0.1827670212153976</v>
+        <v>0.1097722346133736</v>
       </c>
       <c r="D16">
-        <v>0.1074031263563313</v>
+        <v>0.3014342926591098</v>
       </c>
       <c r="E16">
-        <v>0.1211241488420178</v>
+        <v>0.09699036364658653</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7233991316375779</v>
+        <v>0.5166780379547333</v>
       </c>
       <c r="H16">
-        <v>0.8082293867255572</v>
+        <v>0.3702031895339957</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4613047191515989</v>
+        <v>1.420602295148541</v>
       </c>
       <c r="L16">
-        <v>0.2210433315035942</v>
+        <v>0.3708027735978163</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.607308374951766</v>
+        <v>0.658149150995557</v>
       </c>
       <c r="O16">
-        <v>3.066772588708432</v>
+        <v>1.819676172101481</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.763411109459156</v>
+        <v>1.72116671856503</v>
       </c>
       <c r="C17">
-        <v>0.1828063523582557</v>
+        <v>0.1097651501953294</v>
       </c>
       <c r="D17">
-        <v>0.1038479406557968</v>
+        <v>0.2885213516307203</v>
       </c>
       <c r="E17">
-        <v>0.1207068481700126</v>
+        <v>0.09427711295066388</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.7227227702057775</v>
+        <v>0.5056266377077776</v>
       </c>
       <c r="H17">
-        <v>0.8093876731593639</v>
+        <v>0.3674542442053905</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4439294006675993</v>
+        <v>1.361757334055483</v>
       </c>
       <c r="L17">
-        <v>0.2173546054111313</v>
+        <v>0.3558688092217608</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.614079527283746</v>
+        <v>0.6741670818817311</v>
       </c>
       <c r="O17">
-        <v>3.067658156160661</v>
+        <v>1.790340642354607</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7514332396047223</v>
+        <v>1.67802969574015</v>
       </c>
       <c r="C18">
-        <v>0.1828308217780616</v>
+        <v>0.1097645831149308</v>
       </c>
       <c r="D18">
-        <v>0.1018064134179753</v>
+        <v>0.2811203670449345</v>
       </c>
       <c r="E18">
-        <v>0.1204726870272204</v>
+        <v>0.09273138844478268</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.7223757528390991</v>
+        <v>0.4993938643174403</v>
       </c>
       <c r="H18">
-        <v>0.8100860038832707</v>
+        <v>0.3659432463480812</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4339352568015613</v>
+        <v>1.327955748713208</v>
       </c>
       <c r="L18">
-        <v>0.2152428410896476</v>
+        <v>0.3473160963620643</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.618027057402438</v>
+        <v>0.6835042033169518</v>
       </c>
       <c r="O18">
-        <v>3.068322853412013</v>
+        <v>1.773875735815892</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7473809441194135</v>
+        <v>1.663439105661467</v>
       </c>
       <c r="C19">
-        <v>0.1828394246247953</v>
+        <v>0.109764991456764</v>
       </c>
       <c r="D19">
-        <v>0.1011157590644416</v>
+        <v>0.2786188592952072</v>
       </c>
       <c r="E19">
-        <v>0.1203944110506967</v>
+        <v>0.09221053066491791</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.7222654727419524</v>
+        <v>0.4973043351532311</v>
       </c>
       <c r="H19">
-        <v>0.8103279643842285</v>
+        <v>0.3654434851039383</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4305513732369377</v>
+        <v>1.316518317182812</v>
       </c>
       <c r="L19">
-        <v>0.2145295358736519</v>
+        <v>0.3444264384221185</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.619372714586562</v>
+        <v>0.6866866332319199</v>
       </c>
       <c r="O19">
-        <v>3.068574590689934</v>
+        <v>1.768369676214576</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7656294614798469</v>
+        <v>1.72915762285831</v>
       </c>
       <c r="C20">
-        <v>0.1828019744711469</v>
+        <v>0.1097655408072171</v>
       </c>
       <c r="D20">
-        <v>0.1042260527649859</v>
+        <v>0.2898932063949076</v>
       </c>
       <c r="E20">
-        <v>0.1207506642910054</v>
+        <v>0.09456439139417583</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.7227904221747536</v>
+        <v>0.506790164505162</v>
       </c>
       <c r="H20">
-        <v>0.8092610482670324</v>
+        <v>0.367739567168627</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4457790701258659</v>
+        <v>1.368016773000477</v>
       </c>
       <c r="L20">
-        <v>0.2177462533188503</v>
+        <v>0.3574546885965333</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.613353246837488</v>
+        <v>0.6724490464989645</v>
       </c>
       <c r="O20">
-        <v>3.067547809128683</v>
+        <v>1.793420881804224</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8271617776284472</v>
+        <v>1.951089320394601</v>
       </c>
       <c r="C21">
-        <v>0.1826981679641122</v>
+        <v>0.1098094576576685</v>
       </c>
       <c r="D21">
-        <v>0.1147158082063982</v>
+        <v>0.3280987078214821</v>
       </c>
       <c r="E21">
-        <v>0.1220175827629504</v>
+        <v>0.1026548450045404</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7250561460484874</v>
+        <v>0.540174548030393</v>
       </c>
       <c r="H21">
-        <v>0.8060599179198107</v>
+        <v>0.3763076531889453</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4969369746443135</v>
+        <v>1.541609142050646</v>
       </c>
       <c r="L21">
-        <v>0.2286719868331062</v>
+        <v>0.4016836662291468</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.593761326276815</v>
+        <v>0.6261144830602505</v>
       </c>
       <c r="O21">
-        <v>3.065953815345807</v>
+        <v>1.882573546446309</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8675367679372812</v>
+        <v>2.097087413513407</v>
       </c>
       <c r="C22">
-        <v>0.1826466253885926</v>
+        <v>0.1098698991667106</v>
       </c>
       <c r="D22">
-        <v>0.1216007714986489</v>
+        <v>0.3533392528456432</v>
       </c>
       <c r="E22">
-        <v>0.1228976171561484</v>
+        <v>0.108087736213907</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7269111932292844</v>
+        <v>0.5632038724753414</v>
       </c>
       <c r="H22">
-        <v>0.8042533432179511</v>
+        <v>0.3825804714153094</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5303649995560136</v>
+        <v>1.655560479434172</v>
       </c>
       <c r="L22">
-        <v>0.2359000757283383</v>
+        <v>0.4309644315149654</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.581428688802697</v>
+        <v>0.5969979876363487</v>
       </c>
       <c r="O22">
-        <v>3.066294896325132</v>
+        <v>1.944807587579618</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8459734710111206</v>
+        <v>2.019070757175541</v>
       </c>
       <c r="C23">
-        <v>0.1826726502252924</v>
+        <v>0.1098347104872559</v>
       </c>
       <c r="D23">
-        <v>0.1179234694618714</v>
+        <v>0.339841199458121</v>
       </c>
       <c r="E23">
-        <v>0.1224231725503842</v>
+        <v>0.1051741533976518</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7258868652027672</v>
+        <v>0.5507964100904132</v>
       </c>
       <c r="H23">
-        <v>0.8051914391907786</v>
+        <v>0.3791685122291</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5125246222366968</v>
+        <v>1.594691691299715</v>
       </c>
       <c r="L23">
-        <v>0.2320343328630514</v>
+        <v>0.4153001499808369</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.587967660022097</v>
+        <v>0.6124282502444671</v>
       </c>
       <c r="O23">
-        <v>3.065986346551199</v>
+        <v>1.911212273549779</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7646265036521527</v>
+        <v>1.725544716483569</v>
       </c>
       <c r="C24">
-        <v>0.1828039479263097</v>
+        <v>0.1097653532976253</v>
       </c>
       <c r="D24">
-        <v>0.1040551008143069</v>
+        <v>0.2892729201326318</v>
       </c>
       <c r="E24">
-        <v>0.1207308371088978</v>
+        <v>0.09443446884656481</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7227597064181168</v>
+        <v>0.5062637588835344</v>
       </c>
       <c r="H24">
-        <v>0.8093181943997791</v>
+        <v>0.3676103569950726</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4449428496046437</v>
+        <v>1.365186790914692</v>
       </c>
       <c r="L24">
-        <v>0.2175691614677362</v>
+        <v>0.3567376101715922</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.613681427827799</v>
+        <v>0.6732253716475369</v>
       </c>
       <c r="O24">
-        <v>3.067597212416075</v>
+        <v>1.792027061754197</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6775918264195582</v>
+        <v>1.412303251769856</v>
       </c>
       <c r="C25">
-        <v>0.183016284057743</v>
+        <v>0.1098244062799232</v>
       </c>
       <c r="D25">
-        <v>0.08922290566890467</v>
+        <v>0.2357089854705094</v>
       </c>
       <c r="E25">
-        <v>0.1191294609187743</v>
+        <v>0.08341166724023807</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.720992439986361</v>
+        <v>0.4629018338390125</v>
       </c>
       <c r="H25">
-        <v>0.8149976416768965</v>
+        <v>0.3577992630626312</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3720346843419691</v>
+        <v>1.119277028137759</v>
       </c>
       <c r="L25">
-        <v>0.202344664879476</v>
+        <v>0.2949560322423253</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.643441853685123</v>
+        <v>0.7435158441209757</v>
       </c>
       <c r="O25">
-        <v>3.075273995180453</v>
+        <v>1.678900039508335</v>
       </c>
     </row>
   </sheetData>
